--- a/accuracy_no_changes.xlsx
+++ b/accuracy_no_changes.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Accuracy for bltYr-n:</t>
   </si>
   <si>
     <t>Accuracy for sqft-n:</t>
+  </si>
+  <si>
+    <t>Accuracy for sp-n:</t>
   </si>
 </sst>
 </file>
@@ -377,128 +380,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>-17908.29</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>-6869.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>-24773.76</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>-24575.95</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>-36894.97</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>-45731.08</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="B8">
         <v>98.17</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="B9">
         <v>99.40000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="B10">
         <v>99.58</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="B11">
         <v>99.15000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="B12">
         <v>88.67</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="B13">
         <v>97.84999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>-17908.29</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>-6869.7</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>-24773.76</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>-24575.95</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>-36894.97</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>-45731.08</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="B20">
         <v>98.17</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="B21">
         <v>99.40000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="B22">
         <v>99.58</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="B23">
         <v>99.15000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24">
+        <v>88.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25">
+        <v>97.84999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26">
+        <v>97.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27">
+        <v>72.43000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28">
+        <v>78.37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29">
+        <v>99.98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30">
+        <v>95.89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31">
+        <v>96.45999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32">
+        <v>99.98</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33">
+        <v>95.89</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34">
+        <v>96.48</v>
       </c>
     </row>
   </sheetData>

--- a/accuracy_no_changes.xlsx
+++ b/accuracy_no_changes.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pyml\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -28,8 +33,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,17 +93,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,9 +149,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,9 +183,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,9 +218,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,14 +394,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,169 +414,119 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-17908.29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-9263.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-6869.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-5243.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-24773.76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-24575.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-12231.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-36894.97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-50051.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-45731.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-37439.440000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>98.17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>98.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>99.40000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>99.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>99.58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>99.15000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>99.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>88.67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>88.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>97.84999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>-17908.29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>-6869.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>-24773.76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>-24575.95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>-36894.97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>-45731.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20">
-        <v>98.17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21">
-        <v>99.40000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22">
-        <v>99.58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23">
-        <v>99.15000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24">
-        <v>88.67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25">
-        <v>97.84999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="C26">
-        <v>97.28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="C27">
-        <v>72.43000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="C28">
-        <v>78.37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="C29">
+        <v>98.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f>AVERAGE(B8:B13)</f>
+        <v>97.226666666666674</v>
+      </c>
+      <c r="C14">
+        <v>97.51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>74.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17">
         <v>99.98</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="C30">
-        <v>95.89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="C31">
-        <v>96.45999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="C32">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20">
         <v>99.98</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33">
-        <v>95.89</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34">
-        <v>96.48</v>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <f>AVERAGE(C14:C22)</f>
+        <v>92.61333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/accuracy_no_changes.xlsx
+++ b/accuracy_no_changes.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pyml\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -33,8 +28,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,25 +88,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,9 +136,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,10 +170,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,10 +204,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,16 +379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,119 +397,187 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>-9263.94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-9263.940000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>-5243.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>29.51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>-12231.64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>-50051.86</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>-37439.440000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-37439.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="B8">
         <v>98.42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="B9">
         <v>99.31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="B10">
-        <v>99.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="B11">
-        <v>99.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>99.18000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="B12">
         <v>88.81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="B13">
-        <v>98.04</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>98.04000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="B14">
-        <f>AVERAGE(B8:B13)</f>
-        <v>97.226666666666674</v>
+        <v>97.22666666666667</v>
       </c>
       <c r="C14">
-        <v>97.51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>97.51000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="C15">
         <v>74.55</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="C16">
         <v>78.7</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="C17">
         <v>99.98</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="C18">
         <v>96.3</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="C19">
-        <v>95.1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="C20">
         <v>99.98</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="C21">
         <v>96.3</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="C22">
-        <v>95.1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="C23">
-        <f>AVERAGE(C14:C22)</f>
         <v>92.61333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>-9355.51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>-10451.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>-19.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>-24468.77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>-12438.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>-74066.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30">
+        <v>98.48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31">
+        <v>69.84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32">
+        <v>98.59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33">
+        <v>80.81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34">
+        <v>81.51000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35">
+        <v>88.56999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36">
+        <v>64.98</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37">
+        <v>85.79000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/accuracy_no_changes.xlsx
+++ b/accuracy_no_changes.xlsx
@@ -1,35 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pyml\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Accuracy for bltYr-n:</t>
-  </si>
-  <si>
-    <t>Accuracy for sqft-n:</t>
-  </si>
-  <si>
-    <t>Accuracy for sp-n:</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,7 +49,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,28 +72,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,9 +155,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,9 +189,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,9 +224,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,206 +400,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="A1:I19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>-9263.940000000001</v>
-      </c>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>-5243.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>29.51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>-12231.64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>-50051.86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>-37439.44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8">
-        <v>98.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9">
-        <v>99.31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11">
-        <v>99.18000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12">
-        <v>88.81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13">
-        <v>98.04000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14">
-        <v>97.22666666666667</v>
-      </c>
-      <c r="C14">
-        <v>97.51000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15">
-        <v>74.55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16">
-        <v>78.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17">
-        <v>99.98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18">
-        <v>96.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19">
-        <v>95.09999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20">
-        <v>99.98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21">
-        <v>96.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22">
-        <v>95.09999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23">
-        <v>92.61333333333333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>-9355.51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>-10451.45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>-19.71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>-24468.77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>-12438.43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>-74066.94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30">
-        <v>98.48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="B31">
-        <v>69.84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="B32">
-        <v>98.59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33">
-        <v>80.81</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34">
-        <v>81.51000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35">
-        <v>88.56999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="C36">
-        <v>64.98</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="C37">
-        <v>85.79000000000001</v>
-      </c>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/accuracy_no_changes.xlsx
+++ b/accuracy_no_changes.xlsx
@@ -1,30 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pyml\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Accuracy for bltYr-n:</t>
+  </si>
+  <si>
+    <t>Accuracy for sqft-n:</t>
+  </si>
+  <si>
+    <t>Accuracy for sp-n:</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,52 +77,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -155,9 +136,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,10 +170,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,10 +204,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,33 +379,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="A1:I19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="2"/>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>99.15000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>-266358.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>94.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>75.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>98.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>-75563.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8">
+        <v>99.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9">
+        <v>72.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10">
+        <v>99.95999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11">
+        <v>72.81999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12">
+        <v>99.84999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>62.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14">
+        <v>86.20999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15">
+        <v>82.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16">
+        <v>75.45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17">
+        <v>87.52</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18">
+        <v>82.56999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19">
+        <v>85.56</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21">
+        <v>95.28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22">
+        <v>87.98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
